--- a/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
+++ b/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foodf\Downloads\자바 수업\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foodf\Documents\java\git\java.se\site\요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E997F0-6FEB-43DA-BFE5-B576CF8A51CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190567AD-A84C-4384-94D4-A09BDA8B28F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2685" windowWidth="25695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <r>
       <rPr>
@@ -79,27 +79,11 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>제품 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 제품 등록에 작성된 내용중 제품 번호와 종류를 제외한 내용을 수정할 수 있다.</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>제품 삭제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원가입</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -157,10 +141,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 로그아웃</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -181,7 +161,556 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 제품은 관리자가 등록하며, 종류, 제품번호, 제목, 제품상세, 스펙, 가격을 등록
+    <t>게시글</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 관리자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 등록
+  - 제목, 내용을 입력</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제품 종류, 번호, 제목, 제품상세, 스펙, 가격을 화면에 출력</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 관리자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 수정 
+  - 제목, 내용을 수정</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 제목, 내용, 작성일을 확인</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 수정</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>문의는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 회원이 작성
+  - 제목, 내용을 입력하고, 필요하면 첨부파일을 등록, 최대 10MB까지 업로드 가능, 개수는 최대 3개
+  - 필요하면 비밀여부도 체크</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수정은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 작성한 회원이 수정
+ - 제목, 내용, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>첨부파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, 비밀여부를 수정</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 목록 확인</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 상세에서 확인 가능
+ - 해당 제품에 대한 QnA목록이 보여짐
+ - 비밀글에는 비밀글 아이콘을 보여줌
+ - 답변이 완료된 글에는 답변완료를 보여줌</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA답변 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변은 관리자만 가능
+ - 문의에 대한 답변을 등록</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작성된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> QnA가 비밀글이 아니면, 제목, 제품번호, 내용을 확인
+ - 작성된 QnA가 비밀글이면 작성자, 관리자만 제목, 제품번호, 내용을 확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>답변이 달린 경우, 답변과 작성일을 확인</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 비밀번호, 비밀번호 확인, 생년월일, 주소를 입력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일은 사용하는 이메일을 입력해야 하며, 이메일 인증을 통해 계정을 활성화, 중복체크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">  - 비밀번호는 영문, 숫자 입력가능 8자리에서 20자리
+  - 생년월일은 yyy-MM-dd 형태로 입력 필수
+  - 주소는 다음 우편번호를 이용하여 입력, 선택
+  - 
+    </t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 주어진</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 이메일로 링크가 오면 해당 링크를 클릭해서 인증을 받음</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 삭제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 작성자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 등록된 QnA를 삭제
+ - 삭제 시 답변도 같이 삭제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 관리자가 등록
+  - 종류명과 코드를 등록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현완료</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>종류</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>인증</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>로그아웃</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 제품은 관리자가 등록하며, 종류, 썸네일, 제품번호, 제목, 제품상세, 스펙, 가격을 등록
    - 제품 썸네일은 1개로 고정, 이미지만 가능
    - 제품 번호는 영문 3자와 숫자3자로 구성, 중복체크, 제품 종류에 따라 영문이 결정됨, 숫자는 제품 종류의 개수로 결정
    - 제품 상세는 이미지나 글자들을 이용하여 제품에 대한 상세 설명으로 구성
@@ -191,418 +720,239 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>게시글</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - 관리자가</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>찜한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 사용자가</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 등록
-  - 제목, 내용을 입력</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 찜한 제품 목록을 확인</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>설명</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 제품 종류, 번호, 제목, 제품상세, 스펙, 가격을 화면에 출력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 목록 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 썸네일, 제품제목, 제품번호, 가격</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 수정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - 관리자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 수정 
-  - 제목, 내용을 수정</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - 공지사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 제목, 내용, 작성일을 확인</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 수정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>문의는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 회원이 작성
-  - 제목, 내용을 입력하고, 필요하면 첨부파일을 등록, 최대 10MB까지 업로드 가능, 개수는 최대 3개
-  - 필요하면 비밀여부도 체크</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - QnA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>수정은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 작성한 회원이 수정
- - 제목, 내용, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>첨부파일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>, 비밀여부를 수정</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 목록 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - 제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 상세에서 확인 가능
- - 해당 제품에 대한 QnA목록이 보여짐
- - 비밀글에는 비밀글 아이콘을 보여줌
- - 답변이 완료된 글에는 답변완료를 보여줌</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA답변 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - QnA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>답변은 관리자만 가능
- - 문의에 대한 답변을 등록</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>작성된</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> QnA가 비밀글이 아니면, 제목, 제품번호, 내용을 확인
- - 작성된 QnA가 비밀글이면 작성자, 관리자만 제목, 제품번호, 내용을 확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>답변이 달린 경우, 답변과 작성일을 확인</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
         <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>회원은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 이메일</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">, 비밀번호, 비밀번호 확인, 생년월일, 주소를 입력
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>이메일은 사용하는 이메일을 입력해야 하며, 이메일 인증을 통해 계정을 활성화, 중복체크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">  - 비밀번호는 영문, 숫자 입력가능 8자리에서 20자리
-  - 생년월일은 yyy-MM-dd 형태로 입력 필수
-  - 주소는 다음 우편번호를 이용하여 입력, 선택
-  - 
-    </t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일 인증</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - 주어진</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 이메일로 링크가 오면 해당 링크를 클릭해서 인증을 받음</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 삭제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> - 작성자가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 등록된 QnA를 삭제
- - 삭제 시 답변도 같이 삭제</t>
-    </r>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품 목록 확인(일반)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 썸네일, 제품제목, 제품번호, 가격, 수정, 삭제버튼을 표시</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 썸네일, 제품제목, 제품번호, 가격을 표시</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 등록된 제품을 삭제</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +960,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -738,8 +1088,59 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -758,6 +1159,11 @@
         <bgColor rgb="FF26A901"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -890,10 +1296,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -902,48 +1311,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -951,28 +1329,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,9 +1343,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -994,8 +1350,84 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1212,26 +1644,27 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z42"/>
+  <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:C15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="78.42578125" customWidth="1"/>
     <col min="5" max="5" width="59.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1285,22 +1718,22 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="38" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1309,572 +1742,690 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:26" ht="98.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+    <row r="5" spans="1:26" ht="97.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>20</v>
+      <c r="B5" s="51"/>
+      <c r="C5" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="29" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>9</v>
+      <c r="D6" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>11</v>
+      <c r="A7" s="41"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="37"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>26</v>
+    <row r="8" spans="1:26" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="10"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>28</v>
+    <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="41"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="63" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="10"/>
+      <c r="F9" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>19</v>
+    <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="41"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="40"/>
+    <row r="11" spans="1:26" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>38</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="4"/>
+      <c r="F11" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>40</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="37"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="87" x14ac:dyDescent="0.2">
-      <c r="A16" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
+    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="41"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="5"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>16</v>
+    <row r="18" spans="1:10" ht="87" x14ac:dyDescent="0.2">
+      <c r="A18" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>18</v>
+    <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="46"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="4"/>
+      <c r="F19" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+    <row r="20" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="4"/>
+      <c r="F20" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+    <row r="21" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="41"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="4"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+    <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="41"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>13</v>
+      </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="4"/>
+      <c r="F22" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="29" t="s">
+        <v>40</v>
+      </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="37"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>23</v>
-      </c>
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="41"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="42"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="44" t="s">
-        <v>31</v>
-      </c>
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="41"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="42"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="44" t="s">
-        <v>33</v>
-      </c>
+      <c r="A27" s="41"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="28" t="s">
+        <v>39</v>
+      </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" ht="50.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="42"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="49" t="s">
-        <v>35</v>
+    <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="42"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>36</v>
+    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="46"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>22</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="39" x14ac:dyDescent="0.2">
-      <c r="A30" s="42"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>42</v>
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="46"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="F30" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="51" t="s">
-        <v>39</v>
+    <row r="31" spans="1:10" ht="50.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="46"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>26</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
+      <c r="F31" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="42"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="50" t="s">
+    <row r="32" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="46"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="51" t="s">
-        <v>41</v>
+    <row r="33" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A33" s="46"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
+      <c r="F33" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="31"/>
+    <row r="34" spans="1:10" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="46"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="27"/>
+    <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="46"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="20"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="23"/>
+    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="46"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="28" t="s">
+        <v>46</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="33"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="22"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="23"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="13"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="33"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
+      <c r="A39" s="47"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="33"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
+      <c r="A40" s="48"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="33"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="33"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
+      <c r="A42" s="10"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
+      <c r="F42" s="34"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
+    <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+    </row>
+    <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="A36:A38"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="D10:D15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A5:A17"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A18:A27"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B5:B17"/>
+    <mergeCell ref="C12:C17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B28:B36"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
+++ b/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foodf\Documents\java\git\java.se\site\요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190567AD-A84C-4384-94D4-A09BDA8B28F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AF442E-902F-433B-A180-24D4E8257D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2550" yWindow="2685" windowWidth="25695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,15 +75,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>제품 수정</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 제품 등록에 작성된 내용중 제품 번호와 종류를 제외한 내용을 수정할 수 있다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>제품 삭제</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -940,10 +932,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>제품 목록 확인(일반)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 썸네일, 제품제목, 제품번호, 가격, 수정, 삭제버튼을 표시</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -953,6 +941,163 @@
   </si>
   <si>
     <t xml:space="preserve"> - 등록된 제품을 삭제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>일반</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1647,7 +1792,7 @@
   <dimension ref="A1:Z45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1728,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="61" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>3</v>
@@ -1759,64 +1904,64 @@
       </c>
       <c r="B5" s="51"/>
       <c r="C5" s="37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="52"/>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>7</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>8</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="52"/>
-      <c r="C7" s="14" t="s">
-        <v>9</v>
+      <c r="C7" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:26" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="52"/>
-      <c r="C8" s="14" t="s">
-        <v>53</v>
+      <c r="C8" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
@@ -1829,14 +1974,14 @@
       <c r="A9" s="41"/>
       <c r="B9" s="52"/>
       <c r="C9" s="63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1847,14 +1992,14 @@
       <c r="A10" s="41"/>
       <c r="B10" s="52"/>
       <c r="C10" s="63" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1865,17 +2010,17 @@
       <c r="A11" s="41"/>
       <c r="B11" s="52"/>
       <c r="C11" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1885,14 +2030,14 @@
       <c r="A12" s="41"/>
       <c r="B12" s="52"/>
       <c r="C12" s="54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D12" s="55" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1906,7 +2051,7 @@
       <c r="D13" s="55"/>
       <c r="E13" s="5"/>
       <c r="F13" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1920,7 +2065,7 @@
       <c r="D14" s="55"/>
       <c r="E14" s="8"/>
       <c r="F14" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1934,7 +2079,7 @@
       <c r="D15" s="55"/>
       <c r="E15" s="8"/>
       <c r="F15" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1948,7 +2093,7 @@
       <c r="D16" s="55"/>
       <c r="E16" s="8"/>
       <c r="F16" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1962,7 +2107,7 @@
       <c r="D17" s="55"/>
       <c r="E17" s="8"/>
       <c r="F17" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1971,21 +2116,21 @@
     </row>
     <row r="18" spans="1:10" ht="87" x14ac:dyDescent="0.2">
       <c r="A18" s="46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="32" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -1995,17 +2140,17 @@
       <c r="A19" s="46"/>
       <c r="B19" s="19"/>
       <c r="C19" s="32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -2015,17 +2160,17 @@
       <c r="A20" s="41"/>
       <c r="B20" s="21"/>
       <c r="C20" s="32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2035,10 +2180,10 @@
       <c r="A21" s="41"/>
       <c r="B21" s="21"/>
       <c r="C21" s="62" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="28"/>
@@ -2051,17 +2196,17 @@
       <c r="A22" s="41"/>
       <c r="B22" s="19"/>
       <c r="C22" s="32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
@@ -2074,7 +2219,7 @@
       <c r="D23" s="23"/>
       <c r="E23" s="5"/>
       <c r="F23" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2088,7 +2233,7 @@
       <c r="D24" s="23"/>
       <c r="E24" s="5"/>
       <c r="F24" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2102,7 +2247,7 @@
       <c r="D25" s="23"/>
       <c r="E25" s="5"/>
       <c r="F25" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2116,7 +2261,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="5"/>
       <c r="F26" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2130,7 +2275,7 @@
       <c r="D27" s="23"/>
       <c r="E27" s="5"/>
       <c r="F27" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2139,18 +2284,18 @@
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" s="56"/>
       <c r="C28" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2161,14 +2306,14 @@
       <c r="A29" s="46"/>
       <c r="B29" s="56"/>
       <c r="C29" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -2179,14 +2324,14 @@
       <c r="A30" s="46"/>
       <c r="B30" s="56"/>
       <c r="C30" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2197,14 +2342,14 @@
       <c r="A31" s="46"/>
       <c r="B31" s="56"/>
       <c r="C31" s="22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -2215,14 +2360,14 @@
       <c r="A32" s="46"/>
       <c r="B32" s="56"/>
       <c r="C32" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2233,14 +2378,14 @@
       <c r="A33" s="46"/>
       <c r="B33" s="56"/>
       <c r="C33" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2251,14 +2396,14 @@
       <c r="A34" s="46"/>
       <c r="B34" s="56"/>
       <c r="C34" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2269,14 +2414,14 @@
       <c r="A35" s="46"/>
       <c r="B35" s="56"/>
       <c r="C35" s="25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2287,14 +2432,14 @@
       <c r="A36" s="46"/>
       <c r="B36" s="56"/>
       <c r="C36" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>

--- a/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
+++ b/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foodf\Documents\java\git\java.se\site\요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4AF442E-902F-433B-A180-24D4E8257D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5368B23-319B-4806-84A1-06F54CD5A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2685" windowWidth="25695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="1260" windowWidth="25695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -76,10 +76,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 제품 등록에 작성된 내용중 제품 번호와 종류를 제외한 내용을 수정할 수 있다.</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>찜하기</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1097,6 +1093,44 @@
         <scheme val="minor"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이슈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 노트 작성</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 정보</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>찜하기</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1447,7 +1481,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1518,7 +1552,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1533,7 +1583,6 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1548,28 +1597,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
@@ -1791,8 +1827,8 @@
   </sheetPr>
   <dimension ref="A1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1805,11 +1841,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1863,22 +1899,22 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="38" t="s">
+      <c r="D3" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1887,31 +1923,31 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="39"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="97.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1919,17 +1955,17 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="41"/>
-      <c r="B6" s="52"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1937,17 +1973,17 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="41"/>
-      <c r="B7" s="52"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1955,13 +1991,13 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:26" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="41"/>
-      <c r="B8" s="52"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
@@ -1971,17 +2007,17 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="41"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="63" t="s">
-        <v>49</v>
+      <c r="A9" s="51"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1989,17 +2025,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="63" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2007,37 +2043,37 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:26" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="52"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>37</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>38</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="54" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="55" t="s">
-        <v>12</v>
+      <c r="A12" s="51"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>11</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2045,13 +2081,13 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="5"/>
       <c r="F13" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2059,13 +2095,13 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="8"/>
       <c r="F14" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2073,13 +2109,13 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="41"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="8"/>
       <c r="F15" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2087,13 +2123,13 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="41"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="8"/>
       <c r="F16" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2101,13 +2137,13 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="41"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="8"/>
       <c r="F17" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2115,75 +2151,75 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="87" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
-        <v>9</v>
+      <c r="A18" s="55" t="s">
+        <v>8</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>37</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="19"/>
       <c r="C19" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>37</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="21"/>
       <c r="C20" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>37</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="41"/>
+      <c r="A21" s="51"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="28"/>
@@ -2193,33 +2229,33 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="41"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="19"/>
       <c r="C22" s="32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>37</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>38</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="41"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="19"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="5"/>
       <c r="F23" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2227,13 +2263,13 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="41"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="19"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="5"/>
       <c r="F24" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2241,13 +2277,13 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="19"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="5"/>
       <c r="F25" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2255,13 +2291,13 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="19"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="5"/>
       <c r="F26" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2269,13 +2305,13 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="41"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="5"/>
       <c r="F27" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2283,19 +2319,19 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="56"/>
+      <c r="A28" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="64"/>
       <c r="C28" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2303,17 +2339,17 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="46"/>
-      <c r="B29" s="56"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>19</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>20</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -2321,17 +2357,17 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>21</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>22</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2339,17 +2375,17 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="50.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="46"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -2357,17 +2393,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="46"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2375,17 +2411,17 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="39" x14ac:dyDescent="0.2">
-      <c r="A33" s="46"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2393,17 +2429,17 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="46"/>
-      <c r="B34" s="56"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="64"/>
       <c r="C34" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>27</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2411,17 +2447,17 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="46"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>35</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2429,17 +2465,17 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="46"/>
-      <c r="B36" s="56"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2471,10 +2507,10 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="47"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="9"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="43"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="5"/>
       <c r="F39" s="33"/>
       <c r="G39" s="4"/>
@@ -2483,10 +2519,10 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="48"/>
+      <c r="A40" s="57"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="5"/>
       <c r="F40" s="33"/>
       <c r="G40" s="4"/>
@@ -2495,10 +2531,10 @@
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="49"/>
+      <c r="A41" s="58"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="43"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="5"/>
       <c r="F41" s="33"/>
       <c r="G41" s="4"/>
@@ -2519,6 +2555,12 @@
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>58</v>
+      </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="35"/>
@@ -2528,7 +2570,9 @@
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
+      <c r="A44" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2553,11 +2597,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A5:A17"/>
     <mergeCell ref="C40:D40"/>
@@ -2571,6 +2610,11 @@
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="A28:A36"/>
     <mergeCell ref="B28:B36"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
+++ b/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foodf\Documents\java\git\java.se\site\요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5368B23-319B-4806-84A1-06F54CD5A97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841EF0A3-C62E-49C0-99D1-DB3304BACB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="1260" windowWidth="25695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <r>
       <rPr>
@@ -337,10 +337,6 @@
   </si>
   <si>
     <t>QnA 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 목록 확인</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1132,6 +1128,14 @@
       </rPr>
       <t>찜하기</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 목록 확인(작성자)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 목록</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1481,7 +1485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1552,6 +1556,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1825,10 +1830,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z45"/>
+  <dimension ref="A1:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:C17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1841,11 +1846,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1899,22 +1904,22 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1923,31 +1928,31 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="97.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1955,17 +1960,17 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1973,17 +1978,17 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1991,13 +1996,13 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:26" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
@@ -2007,17 +2012,17 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="39" t="s">
-        <v>48</v>
+      <c r="A9" s="52"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2025,17 +2030,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="39" t="s">
+      <c r="A10" s="52"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>50</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2043,37 +2048,37 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:26" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>36</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>37</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="63" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2081,13 +2086,13 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="5"/>
       <c r="F13" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2095,13 +2100,13 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="8"/>
       <c r="F14" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2109,13 +2114,13 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="63"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="8"/>
       <c r="F15" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2123,13 +2128,13 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="63"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="8"/>
       <c r="F16" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2137,13 +2142,13 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="63"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="8"/>
       <c r="F17" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2151,75 +2156,75 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="87" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="G18" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="19"/>
       <c r="C19" s="32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="G19" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="21"/>
       <c r="C20" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="38" t="s">
+      <c r="C21" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="20" t="s">
         <v>46</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>47</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="28"/>
@@ -2229,33 +2234,33 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="19"/>
       <c r="C22" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="29" t="s">
         <v>36</v>
-      </c>
-      <c r="G22" s="29" t="s">
-        <v>37</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="19"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="5"/>
       <c r="F23" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2263,13 +2268,13 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="19"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="5"/>
       <c r="F24" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2277,13 +2282,13 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="19"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="5"/>
       <c r="F25" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2291,13 +2296,13 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="19"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="5"/>
       <c r="F26" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2305,13 +2310,13 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="5"/>
       <c r="F27" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2319,10 +2324,10 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="14" t="s">
         <v>17</v>
       </c>
@@ -2331,7 +2336,7 @@
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2339,8 +2344,8 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="64"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="14" t="s">
         <v>18</v>
       </c>
@@ -2349,7 +2354,7 @@
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -2357,8 +2362,8 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="14" t="s">
         <v>20</v>
       </c>
@@ -2367,7 +2372,7 @@
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
@@ -2375,8 +2380,8 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="50.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="22" t="s">
         <v>13</v>
       </c>
@@ -2385,7 +2390,7 @@
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -2393,8 +2398,8 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="55"/>
-      <c r="B32" s="64"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="65"/>
       <c r="C32" s="25" t="s">
         <v>22</v>
       </c>
@@ -2403,7 +2408,7 @@
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2411,17 +2416,17 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="39" x14ac:dyDescent="0.2">
-      <c r="A33" s="55"/>
-      <c r="B33" s="64"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="65"/>
       <c r="C33" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2429,17 +2434,17 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="64"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="65"/>
       <c r="C34" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2447,48 +2452,50 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>34</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="64"/>
+    <row r="36" spans="1:10" s="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="56"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>29</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D36" s="26"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="28" t="s">
-        <v>43</v>
-      </c>
+      <c r="F36" s="28"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
+    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="56"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="E37" s="5"/>
-      <c r="F37" s="33"/>
+      <c r="F37" s="28" t="s">
+        <v>42</v>
+      </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -2497,8 +2504,8 @@
     <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="13"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="5"/>
       <c r="F38" s="33"/>
       <c r="G38" s="4"/>
@@ -2507,10 +2514,10 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="53"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="13"/>
       <c r="E39" s="5"/>
       <c r="F39" s="33"/>
       <c r="G39" s="4"/>
@@ -2521,8 +2528,8 @@
     <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="57"/>
       <c r="B40" s="9"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="53"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="54"/>
       <c r="E40" s="5"/>
       <c r="F40" s="33"/>
       <c r="G40" s="4"/>
@@ -2533,8 +2540,8 @@
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="58"/>
       <c r="B41" s="9"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="5"/>
       <c r="F41" s="33"/>
       <c r="G41" s="4"/>
@@ -2543,48 +2550,48 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="10"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="34"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="33"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="35"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="34"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="34"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="35"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
+      <c r="A45" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2595,21 +2602,33 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
+    <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A5:A17"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="C40:D40"/>
     <mergeCell ref="B5:B17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="D12:D17"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="A28:A37"/>
+    <mergeCell ref="B28:B37"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>

--- a/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
+++ b/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foodf\Documents\java\git\java.se\site\요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841EF0A3-C62E-49C0-99D1-DB3304BACB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D77E9-41D6-4EEB-843A-E3BB934692A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="1260" windowWidth="25695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <r>
       <rPr>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항 등록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항 수정</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -235,10 +231,6 @@
       <t xml:space="preserve"> 수정 
   - 제목, 내용을 수정</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 확인</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -740,57 +732,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>찜한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>제품</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"> - 사용자가</t>
     </r>
     <r>
@@ -1131,11 +1072,332 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>QnA 목록 확인(작성자)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>QnA 목록</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>QnA 목록 확인(회원)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 회원이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 등록한 QnA 목록과 답변 목록을 확인</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>찜한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>제품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>등록</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 삭제</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - 관리자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 삭제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 제목, 내용, 작성일을 확인</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>공통</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1302,13 +1564,6 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="굴림"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
@@ -1320,6 +1575,13 @@
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1485,7 +1747,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1557,7 +1819,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1611,6 +1872,9 @@
     <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
@@ -1830,10 +2094,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z46"/>
+  <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1846,11 +2110,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1904,22 +2168,22 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -1928,31 +2192,31 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="50"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="97.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1960,17 +2224,17 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1978,17 +2242,17 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1996,13 +2260,13 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:26" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
@@ -2012,17 +2276,17 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="40" t="s">
-        <v>47</v>
+      <c r="A9" s="51"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2030,17 +2294,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="40" t="s">
-        <v>48</v>
+      <c r="A10" s="51"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2048,37 +2312,37 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:26" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="64" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="63" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2086,13 +2350,13 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="5"/>
       <c r="F13" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2100,13 +2364,13 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="64"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="8"/>
       <c r="F14" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2114,13 +2378,13 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="64"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="8"/>
       <c r="F15" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2128,13 +2392,13 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="64"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="8"/>
       <c r="F16" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2142,13 +2406,13 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="8"/>
       <c r="F17" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2156,75 +2420,75 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="87" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="55" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="19"/>
       <c r="C19" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="21"/>
       <c r="C20" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+    <row r="21" spans="1:10" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="51"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="39" t="s">
-        <v>45</v>
+      <c r="C21" s="66" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="28"/>
@@ -2234,33 +2498,33 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="19"/>
       <c r="C22" s="32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="51"/>
       <c r="B23" s="19"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="5"/>
       <c r="F23" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2268,13 +2532,13 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="51"/>
       <c r="B24" s="19"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="5"/>
       <c r="F24" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2282,13 +2546,13 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="19"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="5"/>
       <c r="F25" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2296,13 +2560,13 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="51"/>
       <c r="B26" s="19"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="5"/>
       <c r="F26" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2310,13 +2574,13 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="51"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="5"/>
       <c r="F27" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2324,19 +2588,19 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="14" t="s">
-        <v>17</v>
+      <c r="B28" s="64"/>
+      <c r="C28" s="32" t="s">
+        <v>60</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>14</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2344,204 +2608,222 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>19</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="65"/>
+    <row r="30" spans="1:10" s="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="55"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="14" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="28" t="s">
-        <v>42</v>
-      </c>
+      <c r="F30" s="28"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="1:10" ht="50.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="56"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>23</v>
+    <row r="31" spans="1:10" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>64</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>24</v>
+    <row r="32" spans="1:10" s="38" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="55"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="39" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>29</v>
+    <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="55"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>19</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>26</v>
+    <row r="34" spans="1:10" ht="50.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="55"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="65"/>
+    <row r="35" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="55"/>
+      <c r="B35" s="64"/>
       <c r="C35" s="25" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" s="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="65"/>
+    <row r="36" spans="1:10" ht="39" x14ac:dyDescent="0.2">
+      <c r="A36" s="55"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="26"/>
+        <v>23</v>
+      </c>
+      <c r="D36" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="28"/>
+      <c r="F36" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="65"/>
+    <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="55"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="25" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="28" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
+    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="55"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="E38" s="5"/>
-      <c r="F38" s="33"/>
+      <c r="F38" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="13"/>
+    <row r="39" spans="1:10" s="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="55"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>58</v>
+      </c>
       <c r="E39" s="5"/>
-      <c r="F39" s="33"/>
+      <c r="F39" s="28"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="57"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="54"/>
+    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="55"/>
+      <c r="B40" s="64"/>
+      <c r="C40" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>26</v>
+      </c>
       <c r="E40" s="5"/>
-      <c r="F40" s="33"/>
+      <c r="F40" s="28" t="s">
+        <v>40</v>
+      </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="54"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="5"/>
       <c r="F41" s="33"/>
       <c r="G41" s="4"/>
@@ -2550,10 +2832,10 @@
       <c r="J41" s="4"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="59"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="54"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="13"/>
       <c r="E42" s="5"/>
       <c r="F42" s="33"/>
       <c r="G42" s="4"/>
@@ -2562,48 +2844,43 @@
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="10"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="34"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="59"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="33"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="35"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="33"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="34"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="33"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
+      <c r="A46" s="10"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2614,21 +2891,62 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
     </row>
+    <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+    </row>
+    <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A5:A17"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="A18:A27"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="B5:B17"/>
     <mergeCell ref="C12:C17"/>
     <mergeCell ref="D12:D17"/>
-    <mergeCell ref="A28:A37"/>
-    <mergeCell ref="B28:B37"/>
+    <mergeCell ref="A28:A40"/>
+    <mergeCell ref="B28:B40"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C3:C4"/>

--- a/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
+++ b/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foodf\Documents\java\git\java.se\site\요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10D77E9-41D6-4EEB-843A-E3BB934692A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDADCDFE-BA84-4080-A550-9111469C7E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="1260" windowWidth="25695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1179,10 +1179,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>공지사항 삭제</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> - 관리자가</t>
     </r>
@@ -1397,6 +1393,41 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2097,7 +2128,7 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2625,14 +2656,14 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" s="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A30" s="55"/>
       <c r="B30" s="64"/>
-      <c r="C30" s="14" t="s">
+      <c r="C30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>62</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="28"/>
@@ -2645,10 +2676,10 @@
       <c r="A31" s="55"/>
       <c r="B31" s="64"/>
       <c r="C31" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="28" t="s">
@@ -2663,7 +2694,7 @@
       <c r="A32" s="55"/>
       <c r="B32" s="64"/>
       <c r="C32" s="67" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>19</v>
@@ -2681,7 +2712,7 @@
       <c r="A33" s="55"/>
       <c r="B33" s="64"/>
       <c r="C33" s="68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>19</v>

--- a/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
+++ b/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foodf\Documents\java\git\java.se\site\요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDADCDFE-BA84-4080-A550-9111469C7E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0382EBE9-27FD-457D-A84C-EB469FB9AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="1260" windowWidth="25695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>QnA</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> - 관리자가</t>
     </r>
@@ -210,10 +206,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 제품 종류, 번호, 제목, 제품상세, 스펙, 가격을 화면에 출력</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 수정</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1196,56 +1188,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공지사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용자)</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"> - </t>
     </r>
     <r>
@@ -1339,58 +1281,200 @@
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>공지사항</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>수정</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>확인</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>공지사항</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
       </rPr>
       <t>공통</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
@@ -1398,36 +1482,16 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>공지사항</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF006100"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>삭제</t>
+      <t xml:space="preserve">QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>등록</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1436,7 +1500,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1588,13 +1652,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
@@ -1606,13 +1663,6 @@
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1778,7 +1828,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1850,6 +1900,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1904,8 +1955,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
@@ -2128,7 +2177,7 @@
   <dimension ref="A1:Z49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2141,11 +2190,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2199,22 +2248,22 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="47" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -2223,31 +2272,31 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="49"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="97.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="60"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2255,17 +2304,17 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="51"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2273,17 +2322,17 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="51"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2291,13 +2340,13 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:26" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="51"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
@@ -2307,17 +2356,17 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="39" t="s">
-        <v>44</v>
+      <c r="A9" s="52"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="40" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2325,17 +2374,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="39" t="s">
-        <v>45</v>
+      <c r="A10" s="52"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="40" t="s">
+        <v>43</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2343,37 +2392,37 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:26" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="51"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="63" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="64" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2381,13 +2430,13 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="5"/>
       <c r="F13" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2395,13 +2444,13 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="63"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="8"/>
       <c r="F14" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2409,13 +2458,13 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="63"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="8"/>
       <c r="F15" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2423,13 +2472,13 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="63"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="8"/>
       <c r="F16" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2437,13 +2486,13 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="63"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="64"/>
       <c r="E17" s="8"/>
       <c r="F17" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2451,75 +2500,75 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="87" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="56" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="19"/>
       <c r="C19" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="21"/>
       <c r="C20" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="66" t="s">
-        <v>59</v>
+      <c r="C21" s="67" t="s">
+        <v>57</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="28"/>
@@ -2529,33 +2578,33 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="19"/>
       <c r="C22" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="19"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="5"/>
       <c r="F23" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2563,13 +2612,13 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="19"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="5"/>
       <c r="F24" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2577,13 +2626,13 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="19"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="5"/>
       <c r="F25" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2591,13 +2640,13 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="19"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="5"/>
       <c r="F26" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2605,13 +2654,13 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="52"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="5"/>
       <c r="F27" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2619,19 +2668,19 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="65"/>
       <c r="C28" s="32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2639,17 +2688,17 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="55"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="14" t="s">
-        <v>17</v>
+      <c r="A29" s="56"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="32" t="s">
+        <v>63</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -2657,13 +2706,13 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="55"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="28"/>
@@ -2673,53 +2722,53 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="64"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="65"/>
       <c r="C31" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="1:10" s="38" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="64"/>
-      <c r="C32" s="67" t="s">
-        <v>62</v>
+    <row r="32" spans="1:10" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="56"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="32" t="s">
+        <v>64</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
     </row>
-    <row r="33" spans="1:10" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="68" t="s">
+    <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="56"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="32" t="s">
         <v>65</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2727,17 +2776,17 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="50.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="55"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="22" t="s">
-        <v>13</v>
+      <c r="A34" s="56"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2745,17 +2794,17 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="55"/>
-      <c r="B35" s="64"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="65"/>
       <c r="C35" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2763,17 +2812,17 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="39" x14ac:dyDescent="0.2">
-      <c r="A36" s="55"/>
-      <c r="B36" s="64"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="65"/>
       <c r="C36" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2781,17 +2830,17 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="55"/>
-      <c r="B37" s="64"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="65"/>
       <c r="C37" s="25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2799,17 +2848,17 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="55"/>
-      <c r="B38" s="64"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="65"/>
       <c r="C38" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2817,13 +2866,13 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" s="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
-      <c r="B39" s="64"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="65"/>
       <c r="C39" s="25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="28"/>
@@ -2833,17 +2882,17 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="55"/>
-      <c r="B40" s="64"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="65"/>
       <c r="C40" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2875,10 +2924,10 @@
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="56"/>
+      <c r="A43" s="57"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="59"/>
-      <c r="D43" s="53"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="5"/>
       <c r="F43" s="33"/>
       <c r="G43" s="4"/>
@@ -2887,10 +2936,10 @@
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="57"/>
+      <c r="A44" s="58"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="5"/>
       <c r="F44" s="33"/>
       <c r="G44" s="4"/>
@@ -2899,10 +2948,10 @@
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
+      <c r="A45" s="59"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="5"/>
       <c r="F45" s="33"/>
       <c r="G45" s="4"/>
@@ -2923,11 +2972,11 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="40" t="s">
+      <c r="A47" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="42" t="s">
         <v>52</v>
-      </c>
-      <c r="B47" s="41" t="s">
-        <v>54</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2939,7 +2988,7 @@
     </row>
     <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>

--- a/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
+++ b/site/요구사항 명세서/요구사항 명세서_수업_LG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\foodf\Documents\java\git\java.se\site\요구사항 명세서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0382EBE9-27FD-457D-A84C-EB469FB9AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE24C3A-4D37-408A-BF48-CEE3B581D036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="1260" windowWidth="25695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2775" yWindow="3000" windowWidth="25695" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -320,10 +320,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>QnA 확인</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> - 제품</t>
     </r>
@@ -504,10 +500,6 @@
       </rPr>
       <t xml:space="preserve"> 이메일로 링크가 오면 해당 링크를 클릭해서 인증을 받음</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>QnA 삭제</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -1064,10 +1056,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>QnA 목록</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>QnA 목록 확인(회원)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1486,12 +1474,64 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>등록</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">QnA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>삭제</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -1500,7 +1540,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1665,8 +1705,24 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1690,6 +1746,11 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1822,9 +1883,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1900,23 +1964,11 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="10" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1931,6 +1983,7 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1945,18 +1998,30 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -2176,8 +2241,8 @@
   </sheetPr>
   <dimension ref="A1:Z49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2190,11 +2255,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -2248,22 +2313,22 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="47" t="s">
+      <c r="F3" s="43" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="4"/>
@@ -2272,31 +2337,31 @@
       <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:26" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="50"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:26" ht="97.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -2304,17 +2369,17 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="52"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -2322,17 +2387,17 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="52"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -2340,13 +2405,13 @@
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:26" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="52"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="28"/>
@@ -2356,17 +2421,17 @@
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="40" t="s">
-        <v>42</v>
+      <c r="A9" s="46"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -2374,17 +2439,17 @@
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="40" t="s">
-        <v>43</v>
+      <c r="A10" s="46"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -2392,37 +2457,37 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:26" s="12" customFormat="1" ht="24.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="62"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="64" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="60" t="s">
         <v>11</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -2430,13 +2495,13 @@
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="5"/>
       <c r="F13" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -2444,13 +2509,13 @@
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="52"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="64"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="8"/>
       <c r="F14" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -2458,13 +2523,13 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="52"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="64"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="8"/>
       <c r="F15" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -2472,13 +2537,13 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="64"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="8"/>
       <c r="F16" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -2486,13 +2551,13 @@
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="52"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="64"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="8"/>
       <c r="F17" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -2500,75 +2565,75 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="87" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="51" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="32" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="56"/>
+      <c r="A19" s="51"/>
       <c r="B19" s="19"/>
       <c r="C19" s="32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="52"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="21"/>
       <c r="C20" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" s="30" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="52"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="67" t="s">
-        <v>57</v>
+      <c r="C21" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="28"/>
@@ -2578,33 +2643,33 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="19"/>
       <c r="C22" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="52"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="19"/>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
       <c r="E23" s="5"/>
       <c r="F23" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -2612,13 +2677,13 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="52"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="19"/>
       <c r="C24" s="23"/>
       <c r="D24" s="23"/>
       <c r="E24" s="5"/>
       <c r="F24" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -2626,13 +2691,13 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="52"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="19"/>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
       <c r="E25" s="5"/>
       <c r="F25" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -2640,13 +2705,13 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="52"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="19"/>
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="5"/>
       <c r="F26" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -2654,13 +2719,13 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="52"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="21"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="5"/>
       <c r="F27" s="28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
@@ -2668,19 +2733,19 @@
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="61"/>
       <c r="C28" s="32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -2688,17 +2753,17 @@
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="56"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="61"/>
       <c r="C29" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29" s="20" t="s">
         <v>16</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
@@ -2706,13 +2771,13 @@
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="56"/>
-      <c r="B30" s="65"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="61"/>
       <c r="C30" s="32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="28"/>
@@ -2722,17 +2787,17 @@
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" s="38" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
-      <c r="B31" s="65"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="61"/>
       <c r="C31" s="32" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -2740,17 +2805,17 @@
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" s="38" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="56"/>
-      <c r="B32" s="65"/>
+      <c r="A32" s="51"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D32" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2758,17 +2823,17 @@
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="56"/>
-      <c r="B33" s="65"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D33" s="20" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -2776,17 +2841,17 @@
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:10" ht="50.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="56"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="39" t="s">
-        <v>66</v>
+      <c r="A34" s="51"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="42" t="s">
+        <v>63</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -2794,8 +2859,8 @@
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="56"/>
-      <c r="B35" s="65"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="25" t="s">
         <v>18</v>
       </c>
@@ -2804,7 +2869,7 @@
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -2812,17 +2877,17 @@
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="39" x14ac:dyDescent="0.2">
-      <c r="A36" s="56"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="25" t="s">
-        <v>21</v>
+      <c r="A36" s="51"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="67" t="s">
+        <v>65</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -2830,17 +2895,17 @@
       <c r="J36" s="4"/>
     </row>
     <row r="37" spans="1:10" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="56"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="25" t="s">
-        <v>54</v>
+      <c r="A37" s="51"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="67" t="s">
+        <v>64</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -2848,17 +2913,17 @@
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="56"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="25" t="s">
-        <v>28</v>
+      <c r="A38" s="51"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -2866,13 +2931,13 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" s="38" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="65"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="28"/>
@@ -2882,17 +2947,17 @@
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="65"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>24</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -2924,10 +2989,10 @@
       <c r="J42" s="4"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="57"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="54"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="48"/>
       <c r="E43" s="5"/>
       <c r="F43" s="33"/>
       <c r="G43" s="4"/>
@@ -2936,10 +3001,10 @@
       <c r="J43" s="4"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="58"/>
+      <c r="A44" s="53"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="54"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
       <c r="E44" s="5"/>
       <c r="F44" s="33"/>
       <c r="G44" s="4"/>
@@ -2948,10 +3013,10 @@
       <c r="J44" s="4"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="59"/>
+      <c r="A45" s="54"/>
       <c r="B45" s="9"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="54"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
       <c r="E45" s="5"/>
       <c r="F45" s="33"/>
       <c r="G45" s="4"/>
@@ -2972,11 +3037,11 @@
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="41" t="s">
         <v>50</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>52</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11"/>
@@ -2988,7 +3053,7 @@
     </row>
     <row r="48" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -3014,6 +3079,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="A5:A17"/>
     <mergeCell ref="C44:D44"/>
@@ -3027,11 +3097,6 @@
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="A28:A40"/>
     <mergeCell ref="B28:B40"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
